--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1262751.792833081</v>
+        <v>-1097990.124197475</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14355217.64012661</v>
+        <v>12258327.79560123</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809163</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10945140.54789511</v>
+        <v>11008809.35962287</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>116.9715975318166</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>185.812983113226</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>24.76484596498758</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>28.11631013281968</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>28.11631013281968</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>28.11631013281968</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>28.11631013281968</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>28.11631013281968</v>
+        <v>58.46044805472073</v>
       </c>
       <c r="I4" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.11631013281968</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -911,10 +911,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>245.3490086280203</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>246.8240155397232</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>106.2237452662433</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>21.48844383362432</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
         <v>161.8425727710037</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>90.37338760835061</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>4.471841232362737</v>
       </c>
       <c r="V7" t="n">
-        <v>246.8240155397232</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1148,7 +1148,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1184,19 +1184,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>311.6235970459963</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>35.4989258018939</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1291,25 +1291,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>35.98588198306351</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>57.03093853158204</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1424,13 +1424,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V11" t="n">
-        <v>1.294106471488876</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,19 +1531,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1585,13 +1585,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>148.5982401505984</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>26.11481904674944</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>37.36157859846162</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>26.11481904675037</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>100.2743011658318</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>96.44420510686396</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>138.9184569457532</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>37.36157859846136</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>37.36157859846123</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>24.8653535972134</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>100.2743011658319</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.885794462093</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>206.3580517523955</v>
+        <v>200.5406100707707</v>
       </c>
       <c r="U28" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3013,7 +3013,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>224.7349173161476</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295135</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3202,10 @@
         <v>128.9197986360705</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>106.6837044342879</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448714</v>
+        <v>63.09628120448715</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705894</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S34" t="n">
         <v>132.7590956334168</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295135</v>
+        <v>67.64901981295137</v>
       </c>
       <c r="T35" t="n">
         <v>183.0417138731735</v>
@@ -3329,7 +3329,7 @@
         <v>356.7528348300169</v>
       </c>
       <c r="X35" t="n">
-        <v>371.9281974712906</v>
+        <v>371.9281974712895</v>
       </c>
       <c r="Y35" t="n">
         <v>365.6092959720189</v>
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448714</v>
+        <v>63.09628120448715</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705894</v>
+        <v>10.89362580705895</v>
       </c>
       <c r="S37" t="n">
         <v>132.7590956334168</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295135</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T38" t="n">
         <v>183.0417138731735</v>
@@ -3679,7 +3679,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448714</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705894</v>
+        <v>10.89362580705923</v>
       </c>
       <c r="S40" t="n">
         <v>132.7590956334168</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705893</v>
+        <v>10.89362580705923</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>772.9406667373939</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>346.039936750694</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>346.039936750694</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>227.8868079306772</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>227.8868079306772</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625575</v>
+        <v>227.8868079306772</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812573</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812573</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>402.8003848150212</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>900.2373440418271</v>
       </c>
       <c r="L2" t="n">
-        <v>57.91959887360855</v>
+        <v>1397.674303268633</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>1436.204485520201</v>
       </c>
       <c r="N2" t="n">
-        <v>57.91959887360855</v>
+        <v>1436.204485520201</v>
       </c>
       <c r="O2" t="n">
-        <v>85.75474590510004</v>
+        <v>1436.204485520201</v>
       </c>
       <c r="P2" t="n">
-        <v>112.4652405312787</v>
+        <v>1436.204485520201</v>
       </c>
       <c r="Q2" t="n">
-        <v>112.4652405312787</v>
+        <v>1892.289965024384</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906286</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906286</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906286</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906286</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906286</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906286</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1598.126301074034</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>1192.789031028924</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.4652405312787</v>
+        <v>768.2821603572316</v>
       </c>
       <c r="C3" t="n">
-        <v>112.4652405312787</v>
+        <v>650.7762568747364</v>
       </c>
       <c r="D3" t="n">
-        <v>87.45024460704886</v>
+        <v>546.9362983900214</v>
       </c>
       <c r="E3" t="n">
-        <v>59.04993134157444</v>
+        <v>442.2343646629586</v>
       </c>
       <c r="F3" t="n">
-        <v>30.6496180761</v>
+        <v>348.5885343458628</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>254.5347625634668</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>201.1586693257764</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>208.6053122876882</v>
       </c>
       <c r="J3" t="n">
-        <v>37.5310948040289</v>
+        <v>480.3028015672793</v>
       </c>
       <c r="K3" t="n">
-        <v>37.5310948040289</v>
+        <v>480.3028015672793</v>
       </c>
       <c r="L3" t="n">
-        <v>37.5310948040289</v>
+        <v>480.3028015672793</v>
       </c>
       <c r="M3" t="n">
-        <v>37.5310948040289</v>
+        <v>480.3028015672793</v>
       </c>
       <c r="N3" t="n">
-        <v>56.79494646829576</v>
+        <v>977.7397607940852</v>
       </c>
       <c r="O3" t="n">
-        <v>84.63009349978725</v>
+        <v>977.7397607940852</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1463.681512958804</v>
       </c>
       <c r="Q3" t="n">
-        <v>112.4652405312787</v>
+        <v>1927.826989821583</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906286</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1928.522052467541</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1786.642116765219</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1601.873920684856</v>
       </c>
       <c r="V3" t="n">
-        <v>112.4652405312787</v>
+        <v>1396.900781824122</v>
       </c>
       <c r="W3" t="n">
-        <v>112.4652405312787</v>
+        <v>1200.379404657339</v>
       </c>
       <c r="X3" t="n">
-        <v>112.4652405312787</v>
+        <v>1036.902058424002</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.4652405312787</v>
+        <v>897.2091697772944</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.0649272658043</v>
+        <v>938.864169401824</v>
       </c>
       <c r="C4" t="n">
-        <v>84.0649272658043</v>
+        <v>766.89160628074</v>
       </c>
       <c r="D4" t="n">
-        <v>55.66461400032987</v>
+        <v>603.5748334075107</v>
       </c>
       <c r="E4" t="n">
-        <v>55.66461400032987</v>
+        <v>437.3666275603642</v>
       </c>
       <c r="F4" t="n">
-        <v>55.66461400032987</v>
+        <v>265.5048533349246</v>
       </c>
       <c r="G4" t="n">
-        <v>55.66461400032987</v>
+        <v>99.24788362915677</v>
       </c>
       <c r="H4" t="n">
-        <v>27.26430073485544</v>
+        <v>40.19692599812573</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.19692599812573</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>97.68825422228375</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>324.2158554281209</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>678.9051767225417</v>
       </c>
       <c r="M4" t="n">
-        <v>30.08445184211706</v>
+        <v>1070.090971692792</v>
       </c>
       <c r="N4" t="n">
-        <v>57.91959887360855</v>
+        <v>1447.582482568828</v>
       </c>
       <c r="O4" t="n">
-        <v>84.63009349978725</v>
+        <v>1592.246957743623</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>1882.846169665524</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.846299906286</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>1962.807686593459</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>1962.807686593459</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>1962.807686593459</v>
       </c>
       <c r="U4" t="n">
-        <v>112.4652405312787</v>
+        <v>1682.623238093764</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>1682.623238093764</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4652405312787</v>
+        <v>1407.770834266277</v>
       </c>
       <c r="X4" t="n">
-        <v>112.4652405312787</v>
+        <v>1165.206937712082</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>938.864169401824</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>387.9015886151243</v>
+        <v>831.8385222885897</v>
       </c>
       <c r="C5" t="n">
-        <v>365.0412626688285</v>
+        <v>404.9377923018898</v>
       </c>
       <c r="D5" t="n">
-        <v>345.7890458942329</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>323.8525100824945</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>302.7687323122988</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>302.4700739421514</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>54.64279249970664</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>19.74592124317786</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>264.1016966275038</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>508.4574720118299</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>625.3839518926644</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>625.3839518926644</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>625.3839518926644</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>625.3839518926644</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>625.3839518926644</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>869.7397272769904</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>987.2960621588929</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>882.9287680320333</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>662.0031970766664</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>412.6860096628046</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>412.6860096628046</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>412.6860096628046</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X5" t="n">
-        <v>405.0064148709559</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y5" t="n">
-        <v>403.7095488662503</v>
+        <v>847.6464825397157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533.4933190369427</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>415.9874155544475</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>312.1474570697325</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>207.4455233426697</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>113.7996930255739</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>19.74592124317786</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>19.74592124317786</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>27.1925642050897</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>27.1925642050897</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5483395894157</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L6" t="n">
-        <v>271.5483395894157</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>271.5483395894157</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>271.5483395894157</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>515.9041149737417</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>760.2598903580677</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>905.2767520741899</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>987.2960621588929</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>987.2960621588929</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>987.2960621588929</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>965.5905633370502</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>965.5905633370502</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>965.5905633370502</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>802.1132171037131</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>662.4203284570054</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>429.518963841894</v>
+        <v>817.6261093758709</v>
       </c>
       <c r="C7" t="n">
-        <v>429.518963841894</v>
+        <v>645.6535462547869</v>
       </c>
       <c r="D7" t="n">
-        <v>429.518963841894</v>
+        <v>482.3367733815576</v>
       </c>
       <c r="E7" t="n">
-        <v>263.3107579947475</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F7" t="n">
-        <v>263.3107579947475</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>263.3107579947475</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>119.5144895029019</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>19.74592124317786</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>19.74592124317786</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>19.74592124317786</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>254.228736005915</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>498.584511390241</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>742.940286774567</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>987.2960621588929</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>987.2960621588929</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>987.2960621588929</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>940.257448846066</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>770.1224013652009</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>678.8361512557558</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>678.8361512557558</v>
+        <v>1806.919845861589</v>
       </c>
       <c r="V7" t="n">
-        <v>429.518963841894</v>
+        <v>1525.208378469618</v>
       </c>
       <c r="W7" t="n">
-        <v>429.518963841894</v>
+        <v>1250.355974642131</v>
       </c>
       <c r="X7" t="n">
-        <v>429.518963841894</v>
+        <v>1007.792078087936</v>
       </c>
       <c r="Y7" t="n">
-        <v>429.518963841894</v>
+        <v>1007.792078087936</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>455.1087569162936</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C8" t="n">
-        <v>432.2484309699978</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D8" t="n">
-        <v>412.9962141954022</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>391.0596783836638</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>369.9759006134681</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>369.6772422433207</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>399.5154512777223</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>399.5154512777223</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>399.5154512777223</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>815.1719019525203</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1261.951848555523</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>904.4624336817722</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="W8" t="n">
-        <v>508.071083982119</v>
+        <v>1805.772648188046</v>
       </c>
       <c r="X8" t="n">
-        <v>472.2135831721252</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y8" t="n">
-        <v>470.9167171674196</v>
+        <v>1796.796187391491</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050604</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>1229.627938107791</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1686.413844810522</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1686.413844810522</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1686.413844810522</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1686.413844810522</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373313</v>
+        <v>682.0516858538765</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162473</v>
+        <v>645.7023101134083</v>
       </c>
       <c r="D10" t="n">
-        <v>576.385249643018</v>
+        <v>482.385537240179</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958716</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>238.315269570432</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1718.599492800575</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1615.976723257882</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>1341.124319430395</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>1098.5604228762</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>872.2176545659422</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2525.342853444553</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2098.442123457853</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1675.149502642853</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.172562790711</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>824.0483809801111</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>419.7093185695597</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>121.8409400435946</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>449.5475276039613</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>1165.05583557946</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2094.680883198737</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3098.966984617795</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>4075.218043104496</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O11" t="n">
-        <v>4347.203439353289</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P11" t="n">
-        <v>4347.203439353289</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>4242.83614522643</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4021.910574271063</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3763.555664867476</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.248486613445</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3762.248486613445</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3350.528487781193</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2945.191217736083</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>234.3739338071522</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>94.39071174897762</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>366.0882010285687</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>366.0882010285687</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1202.887009111475</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M12" t="n">
-        <v>1202.887009111475</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>1202.887009111475</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1349.466912420093</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1349.466912420093</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1813.612389282872</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.2378791203714</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>560.2653159992874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>396.948543126058</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>230.7403372789114</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>230.7403372789114</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>230.7403372789114</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>144.4353970112238</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>370.962998217061</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>725.6523195114818</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1116.838114481733</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1494.329625357768</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1849.757754037531</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2140.356965959432</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2267.357096200194</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2267.357096200194</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.222048719329</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.882700945229</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.698252445533</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1423.599019970182</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>1148.746616142695</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>1148.746616142695</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>922.4038478324371</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2281.064754648851</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1889.06089591868</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1500.665146360209</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1109.585077764596</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>719.3577672105248</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9155760565021</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>86.94406878706579</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>449.5475276039613</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1165.05583557946</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2094.680883198737</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>3098.966984617795</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>4075.218043104496</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>4347.203439353289</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>4347.203439353289</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4347.203439353289</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>4347.203439353289</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4320.824834255562</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4097.366796108503</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3774.774252491281</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3413.279774048157</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3036.456646472433</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2666.016247683852</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>234.3739338071522</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>94.39071174897762</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>366.0882010285687</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>1895.631699367575</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1895.631699367575</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1895.631699367575</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1895.631699367575</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>898.7143637936803</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>761.6386719291249</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>633.2187703124243</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>501.9074357218067</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>364.942532752896</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>233.582434303657</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>124.6830370683402</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>178.6378205297477</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>439.3678452541087</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>828.2595900670534</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1253.647808555828</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.341742950388</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2054.972295148675</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2379.7739305891</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2528.834742292087</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2393.596566067751</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>2185.15408955018</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1939.866512307013</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1693.05191617157</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1453.096383600612</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1245.429358302946</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1053.983461249217</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2281.064754648851</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1889.06089591868</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1500.66514636021</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1109.585077764596</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>719.3577672105248</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>349.9155760565021</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>86.94406878706579</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>449.5475276039613</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1165.05583557946</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1202.301520785419</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.587622204478</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N17" t="n">
-        <v>3182.838680691179</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>3182.838680691179</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>3891.117959849106</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4347.203439353289</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>4347.203439353289</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4320.824834255562</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4097.366796108503</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3774.774252491281</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3413.279774048157</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3036.456646472433</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2666.016247683852</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>234.3739338071522</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>94.39071174897762</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>366.0882010285687</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1349.466912420093</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1813.612389282872</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>898.71436379368</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>761.6386719291249</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>660.3514990343454</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>529.0401644437277</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F19" t="n">
-        <v>392.0752614748169</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G19" t="n">
-        <v>260.7151630255779</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>151.815765790261</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>178.6378205297477</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>439.3678452541087</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>828.2595900670533</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1253.647808555828</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.341742950387</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2054.972295148675</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2379.773930589099</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2528.834742292087</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2393.596566067751</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2185.15408955018</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1939.866512307013</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1693.05191617157</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1453.096383600612</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>1245.429358302946</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>1053.983461249217</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2051.944237177408</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1659.940378447237</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1271.544628888766</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>880.4645602931525</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>490.2372497390816</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
-        <v>349.9155760565021</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>86.94406878706576</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>86.94406878706576</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>449.5475276039613</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1165.05583557946</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2094.680883198737</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3098.966984617795</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>4075.218043104496</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4229.647104471385</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4229.647104471385</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4229.647104471385</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>4347.203439353288</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>4277.733016482957</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4091.704316784119</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>3868.24627863706</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3545.653735019839</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3184.159256576715</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>2807.336129000991</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2436.89573021241</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>234.3739338071522</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>86.94406878706576</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>94.39071174897759</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>366.0882010285687</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1349.466912420093</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1813.612389282872</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>898.7143637936799</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>761.6386719291247</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>633.2187703124242</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>501.9074357218066</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>364.9425327528958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>233.5824343036567</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>124.6830370683398</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>86.94406878706576</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>178.6378205297476</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>439.3678452541085</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>828.2595900670531</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1253.647808555828</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.341742950387</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2054.972295148674</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2379.773930589099</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2528.834742292087</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2393.596566067751</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2185.15408955018</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1939.866512307013</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1693.05191617157</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1453.096383600612</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1245.429358302946</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1053.983461249217</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505438</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057893</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208706</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366633</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752719</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882388</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.50076318355</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036491</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.61999771505438</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>91.61999771505438</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>91.61999771505438</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>928.4188057979605</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>1900.307628295564</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1900.307628295564</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1900.307628295564</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1900.307628295564</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216682</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C25" t="n">
-        <v>766.314600857113</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>637.8946992404126</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>506.5833646497952</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>369.6184616808844</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>238.2583632316454</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>129.3589659963285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820973</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9355189950419</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483816</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276373</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220075</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.272494995739</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478168</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235001</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099558</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.7723125286</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230934</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177205</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>354.5915049844908</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>454.2234565319499</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>473.3969821521353</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>1477.683083571193</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.934142057894</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>3299.078792208707</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4007.358071366634</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4463.443550870817</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>91.6199977150544</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>91.6199977150544</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>91.6199977150544</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>91.6199977150544</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>91.6199977150544</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>91.6199977150544</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>981.1012757265261</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1697.298992765024</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
-        <v>1900.307628295564</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>903.3902927216686</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C28" t="n">
-        <v>766.3146008571135</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D28" t="n">
-        <v>665.0274279623339</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E28" t="n">
-        <v>533.7160933717162</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>396.7511904028054</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>265.3910919535663</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>444.0437741820972</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9355189950417</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>1258.323737483816</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2398.27249499574</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2189.830018478168</v>
+        <v>2080.149468020199</v>
       </c>
       <c r="U28" t="n">
-        <v>1944.542441235001</v>
+        <v>1799.965019520503</v>
       </c>
       <c r="V28" t="n">
-        <v>1697.727845099559</v>
+        <v>1518.253552128532</v>
       </c>
       <c r="W28" t="n">
-        <v>1457.772312528601</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.105287230935</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.659390177206</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,19 +6449,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6470,28 +6470,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.0699265966</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747412</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.49385590534</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6531,13 +6531,13 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677403</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
         <v>381.4468456473314</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>512.0757560045446</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>512.0757560045446</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>512.0757560045446</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>345.8675501573981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6643,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1155.589460012876</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>928.5844930268684</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>702.2417247166104</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815411</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>574.6950366779613</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>574.6950366779613</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>1578.98113809702</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>2555.23219658372</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3400.376846734533</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4108.65612589246</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4564.741605396644</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984471</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>98.74147506984471</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>297.831137764915</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>297.831137764915</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>1353.81767574096</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N33" t="n">
-        <v>1353.81767574096</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O33" t="n">
-        <v>1353.81767574096</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P33" t="n">
-        <v>1353.81767574096</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619909</v>
+        <v>933.2391797598864</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223612</v>
+        <v>797.3015675202566</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305861</v>
+        <v>670.0197455284815</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648939</v>
+        <v>539.8464905627893</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209081</v>
+        <v>404.0196672188039</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965942</v>
+        <v>273.7976483944902</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862028</v>
+        <v>166.0363307840984</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>195.1118969888998</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557544</v>
+        <v>456.9573535536502</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090884</v>
+        <v>846.9645302069841</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1273.468180536148</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1686.277546771097</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>2077.023530809774</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2402.940598090588</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2565.258583690263</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960995</v>
+        <v>2554.25492125889</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361584</v>
+        <v>2420.154824659479</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>2212.850427766833</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850697</v>
+        <v>1968.700930148592</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.01653234018</v>
+        <v>1723.024413638075</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1484.206960692042</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>1277.678015019301</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>1087.370197590498</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815408</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
@@ -6935,16 +6935,16 @@
         <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K35" t="n">
-        <v>1169.406598900327</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="L35" t="n">
-        <v>2099.031646519604</v>
+        <v>1020.919879727209</v>
       </c>
       <c r="M35" t="n">
-        <v>2099.031646519604</v>
+        <v>1461.424803215116</v>
       </c>
       <c r="N35" t="n">
         <v>2437.675861701817</v>
@@ -6971,10 +6971,10 @@
         <v>4089.198683555191</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X35" t="n">
         <v>3031.702772793898</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619907</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223605</v>
+        <v>786.293686222361</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305861</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648934</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209078</v>
+        <v>393.011785920908</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965945</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862029</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M37" t="n">
         <v>1262.460299238252</v>
@@ -7111,31 +7111,31 @@
         <v>2066.015649511878</v>
       </c>
       <c r="P37" t="n">
-        <v>2391.932716792691</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392366</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U37" t="n">
         <v>1957.693048850696</v>
       </c>
       <c r="V37" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X37" t="n">
-        <v>1266.670133721405</v>
+        <v>1266.670133721406</v>
       </c>
       <c r="Y37" t="n">
         <v>1076.362316292602</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C38" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D38" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F38" t="n">
-        <v>721.432371281541</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G38" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524429</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793188</v>
       </c>
       <c r="I38" t="n">
         <v>91.29483210793285</v>
@@ -7175,19 +7175,19 @@
         <v>453.8982909248284</v>
       </c>
       <c r="K38" t="n">
-        <v>1080.937583485521</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>2010.562631104798</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>3014.848732523856</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="N38" t="n">
-        <v>3991.099791010557</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="O38" t="n">
-        <v>3991.099791010557</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P38" t="n">
         <v>3991.099791010557</v>
@@ -7208,16 +7208,16 @@
         <v>4089.198683555191</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X38" t="n">
         <v>3031.702772793897</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J39" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K39" t="n">
-        <v>346.9859375670385</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L39" t="n">
-        <v>1183.784745649945</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="M39" t="n">
-        <v>1183.784745649945</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="N39" t="n">
-        <v>1183.784745649945</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="O39" t="n">
-        <v>1183.784745649945</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="P39" t="n">
-        <v>1899.982462688443</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q39" t="n">
         <v>1899.982462688443</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619909</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223612</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305861</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648939</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209081</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H40" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
         <v>91.29483210793285</v>
@@ -7333,10 +7333,10 @@
         <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557544</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090884</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7354,25 +7354,25 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T40" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.693048850697</v>
+        <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W40" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X40" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y40" t="n">
         <v>1076.362316292602</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220165</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
         <v>1887.72126111492</v>
@@ -7409,16 +7409,16 @@
         <v>91.29483210793285</v>
       </c>
       <c r="J41" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="K41" t="n">
-        <v>1169.406598900327</v>
+        <v>806.8031400834319</v>
       </c>
       <c r="L41" t="n">
-        <v>2099.031646519604</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="M41" t="n">
-        <v>2099.031646519604</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="N41" t="n">
         <v>2437.675861701817</v>
@@ -7454,7 +7454,7 @@
         <v>3031.702772793897</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630241</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29483210793285</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J42" t="n">
-        <v>91.29483210793285</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K42" t="n">
-        <v>681.7797586762724</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L42" t="n">
-        <v>1183.784745649945</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="M42" t="n">
-        <v>1183.784745649945</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="N42" t="n">
-        <v>1183.784745649945</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="O42" t="n">
-        <v>1183.784745649945</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="P42" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="Q42" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7573,43 +7573,43 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090886</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238252</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473202</v>
+        <v>1675.269665473201</v>
       </c>
       <c r="O43" t="n">
         <v>2066.015649511878</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792693</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392368</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.693048850697</v>
+        <v>1957.693048850696</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y43" t="n">
         <v>1076.362316292602</v>
@@ -7634,16 +7634,16 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815412</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G44" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
@@ -7658,25 +7658,25 @@
         <v>2099.031646519604</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701819</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.820511852631</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010559</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.185270514742</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R44" t="n">
         <v>4564.741605396644</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151239</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U44" t="n">
         <v>4089.198683555192</v>
@@ -7719,31 +7719,31 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984472</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J45" t="n">
         <v>370.4389643494358</v>
       </c>
       <c r="K45" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L45" t="n">
-        <v>1353.81767574096</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="M45" t="n">
-        <v>1353.81767574096</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="N45" t="n">
-        <v>1353.81767574096</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="O45" t="n">
-        <v>1353.81767574096</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="P45" t="n">
-        <v>1353.81767574096</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="Q45" t="n">
         <v>1817.963152603739</v>
@@ -7804,19 +7804,19 @@
         <v>91.29483210793289</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557546</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090886</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7828,10 +7828,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>538.2261757713809</v>
       </c>
       <c r="L2" t="n">
-        <v>66.42835256544261</v>
+        <v>540.7736174091945</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>76.35063891111645</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>64.55565941243201</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8067,19 +8067,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>40.80146423805364</v>
+        <v>523.8046031901132</v>
       </c>
       <c r="O3" t="n">
-        <v>51.28819985504191</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>512.6210959166656</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.86334842179818</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>50.69175002430551</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>49.47948510062515</v>
+        <v>168.6249199982173</v>
       </c>
       <c r="P4" t="n">
-        <v>50.49711079080617</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>276.2439750253097</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>282.5886163345326</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
-        <v>156.4195978678094</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8228,13 +8228,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>282.9486901443213</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,16 +8289,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>269.2232493730565</v>
+        <v>467.0051119838363</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,13 +8307,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>269.9959052619454</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>268.5948567445519</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>169.2287167901121</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>258.7700879388701</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>269.399455431209</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>267.5729165153236</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>269.3232030381477</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8465,16 +8465,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>457.2459600376383</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,19 +8526,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>467.0051119838363</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8547,10 +8547,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.692965709293</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8623,10 +8623,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>299.5718579722078</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8699,16 +8699,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>743.9259979858332</v>
       </c>
       <c r="O11" t="n">
-        <v>312.1236828396541</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8769,28 +8769,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>171.2323981147657</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O14" t="n">
-        <v>312.1236828396541</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>971.6407924018908</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9021,10 +9021,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9167,16 +9167,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>75.9339466810664</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9185,7 +9185,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>418.6332501171364</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9407,19 +9407,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
-        <v>193.3799102316701</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9495,7 +9495,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>418.6332501171364</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9647,7 +9647,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>395.4385419568376</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9711,19 +9711,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9732,13 +9732,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>57.67924002876973</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9893,10 +9893,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9948,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9966,16 +9966,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.8062660976048</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>924.179015540608</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>157.7815156969638</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10370,7 +10370,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>223.4999032222932</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10446,7 +10446,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>482.3857310690346</v>
       </c>
       <c r="N35" t="n">
-        <v>379.3444866548631</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10823,7 +10823,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>669.1376235833881</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10832,13 +10832,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>218.5955459798674</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>280.6730777314198</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10917,10 +10917,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11066,10 +11066,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>745.7622467369152</v>
       </c>
       <c r="N41" t="n">
-        <v>379.3444866548631</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11133,19 +11133,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>529.5908311320803</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167935</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,13 +11154,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>379.344486654865</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11379,7 +11379,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>419.3774956265373</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11394,7 +11394,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>43.19194091832987</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>109.0767116274796</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>352.6204142535241</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23464,7 +23464,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919144</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>130.296112567453</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>158.0535936551002</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>26.86140143470166</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>158.0535936550993</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>26.8614014347017</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>68.15019490184622</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>226.8293122967291</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>26.86140143470191</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>26.86140143470209</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>215.2729039914395</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>26.86140143470159</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>40.3653442255883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>15.40334027250529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>936072.6510612521</v>
+        <v>932706.5752247104</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>945555.2869671974</v>
+        <v>957776.2585280247</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>954858.7773831869</v>
+        <v>957776.2585280247</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842769.4442016614</v>
+        <v>942196.9852138677</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940397.9032045016</v>
+        <v>942196.9852138677</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940397.9032045017</v>
+        <v>942196.9852138677</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940397.9032045016</v>
+        <v>942196.9852138677</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>970668.5505694256</v>
+        <v>942196.9852138677</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>970668.5505694256</v>
+        <v>942196.9852138677</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942196.985213868</v>
+        <v>942196.9852138677</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>971603.9468743653</v>
+        <v>974856.6090118132</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87366.40020167445</v>
+        <v>85171.19633022112</v>
       </c>
       <c r="C2" t="n">
-        <v>87366.40020167448</v>
+        <v>87366.40020167449</v>
       </c>
       <c r="D2" t="n">
         <v>87366.40020167445</v>
       </c>
       <c r="E2" t="n">
-        <v>75408.68913617035</v>
+        <v>84304.56047061713</v>
       </c>
       <c r="F2" t="n">
-        <v>84561.35716768663</v>
+        <v>84304.5604706171</v>
       </c>
       <c r="G2" t="n">
-        <v>84561.3571676866</v>
+        <v>84304.56047061707</v>
       </c>
       <c r="H2" t="n">
-        <v>84561.35716768654</v>
+        <v>84304.5604706171</v>
       </c>
       <c r="I2" t="n">
-        <v>87269.69915650951</v>
+        <v>84304.56047061709</v>
       </c>
       <c r="J2" t="n">
-        <v>87269.69915650954</v>
+        <v>84304.56047061711</v>
       </c>
       <c r="K2" t="n">
-        <v>84304.56047061707</v>
+        <v>84304.56047061709</v>
       </c>
       <c r="L2" t="n">
+        <v>87366.40020167433</v>
+      </c>
+      <c r="M2" t="n">
         <v>87366.40020167446</v>
       </c>
-      <c r="M2" t="n">
-        <v>87366.40020167433</v>
-      </c>
       <c r="N2" t="n">
-        <v>87366.40020167445</v>
+        <v>87366.40020167452</v>
       </c>
       <c r="O2" t="n">
-        <v>87366.40020167445</v>
+        <v>87366.40020167436</v>
       </c>
       <c r="P2" t="n">
-        <v>87366.40020167435</v>
+        <v>87366.40020167443</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>168386.4303908736</v>
       </c>
       <c r="C3" t="n">
-        <v>70658.04841929424</v>
+        <v>17370.29543921338</v>
       </c>
       <c r="D3" t="n">
-        <v>66653.70877922839</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>186730.9660666976</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
-        <v>27638.3220351708</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15542.84620574579</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391553</v>
+        <v>131466.0563231701</v>
       </c>
       <c r="K3" t="n">
-        <v>90655.72937395333</v>
+        <v>13837.70917736396</v>
       </c>
       <c r="L3" t="n">
-        <v>48021.96166036506</v>
+        <v>28539.68109811171</v>
       </c>
       <c r="M3" t="n">
-        <v>155852.4193600509</v>
+        <v>145773.7708181577</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305120.5826568028</v>
+        <v>167673.6163730623</v>
       </c>
       <c r="C4" t="n">
-        <v>244063.9369467809</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>39119.38874022567</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>74031.62392075604</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="G4" t="n">
-        <v>74031.62392075603</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>74031.62392075603</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
-        <v>75440.92339458491</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>75440.92339458491</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>76430.31156290731</v>
+        <v>55487.12216806367</v>
       </c>
       <c r="M4" t="n">
+        <v>76430.31156290736</v>
+      </c>
+      <c r="N4" t="n">
+        <v>76430.31156290736</v>
+      </c>
+      <c r="O4" t="n">
         <v>76430.3115629073</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76430.3115629073</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76430.31156290731</v>
       </c>
       <c r="P4" t="n">
         <v>76430.31156290733</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64177.26375857554</v>
       </c>
       <c r="C5" t="n">
-        <v>48634.50014481517</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66077.49227817</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>68981.89989713847</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>68981.89989713847</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>68981.89989713844</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.6058824098</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>72535.60588240981</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>80749.19025122613</v>
       </c>
       <c r="M5" t="n">
         <v>72383.20046482541</v>
@@ -26509,7 +26509,7 @@
         <v>72383.20046482541</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262513.6763118447</v>
+        <v>-315102.7009234811</v>
       </c>
       <c r="C6" t="n">
-        <v>-275990.0853092159</v>
+        <v>-162825.8853174236</v>
       </c>
       <c r="D6" t="n">
-        <v>-225128.7932246538</v>
+        <v>-145455.5898782103</v>
       </c>
       <c r="E6" t="n">
-        <v>-216519.1579489229</v>
+        <v>-252984.2893905329</v>
       </c>
       <c r="F6" t="n">
-        <v>-86090.48868537869</v>
+        <v>-37244.93283389242</v>
       </c>
       <c r="G6" t="n">
-        <v>-58452.1666502079</v>
+        <v>-37244.93283389245</v>
       </c>
       <c r="H6" t="n">
-        <v>-58452.16665020782</v>
+        <v>-37244.93283389242</v>
       </c>
       <c r="I6" t="n">
-        <v>-76249.676326231</v>
+        <v>-37244.93283389245</v>
       </c>
       <c r="J6" t="n">
-        <v>-68063.29396887674</v>
+        <v>-168710.9891570625</v>
       </c>
       <c r="K6" t="n">
-        <v>-127849.6315456615</v>
+        <v>-51082.64201125641</v>
       </c>
       <c r="L6" t="n">
-        <v>-109469.0734864233</v>
+        <v>-77409.59331572716</v>
       </c>
       <c r="M6" t="n">
-        <v>-217299.5311861093</v>
+        <v>-207220.882644216</v>
       </c>
       <c r="N6" t="n">
-        <v>-61447.11182605826</v>
+        <v>-61447.11182605824</v>
       </c>
       <c r="O6" t="n">
-        <v>-61447.11182605827</v>
+        <v>-61447.11182605835</v>
       </c>
       <c r="P6" t="n">
-        <v>-61447.11182605842</v>
+        <v>-61447.11182605832</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O2" t="n">
         <v>35.67460137263965</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765716</v>
       </c>
       <c r="C4" t="n">
-        <v>246.8240155397232</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765716</v>
       </c>
       <c r="C4" t="n">
-        <v>218.7077054069035</v>
+        <v>53.76623813902256</v>
       </c>
       <c r="D4" t="n">
-        <v>214.575890220611</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>625.4009540779882</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>58.44911159985782</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281999</v>
+        <v>502.4615749765716</v>
       </c>
       <c r="K4" t="n">
-        <v>352.2416515415799</v>
+        <v>53.76623813902256</v>
       </c>
       <c r="L4" t="n">
-        <v>76.9773739969155</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>625.400954077988</v>
+        <v>584.9575882335663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765716</v>
       </c>
       <c r="K4" t="n">
-        <v>218.7077054069035</v>
+        <v>53.76623813902256</v>
       </c>
       <c r="L4" t="n">
-        <v>214.575890220611</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>625.4009540779882</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>304.7455729218044</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>78.03671293488023</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75.53860425697246</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>64.5930618811052</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64.99692393175235</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,25 +27537,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.5672950116773</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2419956741075</v>
+        <v>83.89785775220642</v>
       </c>
       <c r="I4" t="n">
-        <v>74.00603661213921</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27591,19 +27591,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.9630304943357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>49.54068611268519</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>8.94734476982859</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>295.0601520784152</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>161.4320702859353</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>150.5325666880084</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>272.910762782336</v>
       </c>
       <c r="V7" t="n">
-        <v>32.07033717832815</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>42.29092367901671</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>372.1038730420363</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>134.2669555068096</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28065,10 +28065,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.54122690220053e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30049,7 +30049,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137264067</v>
       </c>
       <c r="Y35" t="n">
         <v>35.67460137263964</v>
@@ -30183,7 +30183,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263902</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q37" t="n">
         <v>35.67460137263964</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396448</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="41">
@@ -30885,7 +30885,7 @@
         <v>35.67460137263965</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263919</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N46" t="n">
         <v>35.67460137263965</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.11631013281968</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502.4615749765716</v>
       </c>
       <c r="L2" t="n">
-        <v>28.11631013281968</v>
+        <v>502.4615749765716</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>38.91937601168464</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,19 +34787,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>19.45843602451198</v>
+        <v>502.4615749765716</v>
       </c>
       <c r="O3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>490.8502547118369</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.11631013281968</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>28.11631013281968</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>26.98029760220071</v>
+        <v>146.1257324997928</v>
       </c>
       <c r="P4" t="n">
-        <v>28.11631013281968</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>246.8240155397232</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>246.8240155397232</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
-        <v>118.1075554351864</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.8240155397232</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>246.8240155397232</v>
+        <v>444.605878150503</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>246.8240155397232</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>246.8240155397232</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>146.4816785011336</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>236.8513280431688</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>246.8240155397232</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>246.8240155397232</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>246.8240155397232</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>419.8550006816142</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,19 +35246,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>444.605878150503</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>77.9459274203145</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35343,10 +35343,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>277.0726704737833</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35419,16 +35419,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>706.6463751513871</v>
       </c>
       <c r="O11" t="n">
-        <v>274.73272348363</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>148.0605083925434</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,22 +35653,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O14" t="n">
-        <v>274.73272348363</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>948.5440118895629</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>37.62190424844347</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35905,7 +35905,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>396.8624089123077</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,19 +36127,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
-        <v>155.988950875646</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>396.8624089123077</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>358.1589191223916</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>19.3671975961468</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36613,10 +36613,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,16 +36686,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>205.0592278086263</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>886.899392706162</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>122.0169149021544</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37090,7 +37090,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>201.1006693889599</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>444.9544681696028</v>
       </c>
       <c r="N35" t="n">
-        <v>342.0648638204171</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37479,7 +37479,7 @@
         <v>394.6929131703801</v>
       </c>
       <c r="P37" t="n">
-        <v>329.2091588695087</v>
+        <v>329.2091588695093</v>
       </c>
       <c r="Q37" t="n">
         <v>163.9575612117931</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.760991117512488e-13</v>
       </c>
       <c r="J38" t="n">
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>633.3730227885787</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37552,13 +37552,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>181.3159231454213</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>258.2738438980865</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37786,10 +37786,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>708.3309838374835</v>
       </c>
       <c r="N41" t="n">
-        <v>342.0648638204171</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>507.0757444178507</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>20.44490262935137</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>342.064863820419</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38099,7 +38099,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>396.8624089123077</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>20.44490262935137</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38181,7 +38181,7 @@
         <v>393.9466430841758</v>
       </c>
       <c r="M46" t="n">
-        <v>430.8117680092562</v>
+        <v>430.8117680092566</v>
       </c>
       <c r="N46" t="n">
         <v>416.9791578130798</v>
